--- a/data/sheet/msg_8717.xlsx
+++ b/data/sheet/msg_8717.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="36">
   <si>
     <t/>
   </si>
@@ -102,6 +102,27 @@
   <si>
     <t>2022-06-25 14:06:15</t>
   </si>
+  <si>
+    <t>2022-07-02 21:52:07</t>
+  </si>
+  <si>
+    <t>2022-07-02 21:53:07</t>
+  </si>
+  <si>
+    <t>2022-07-02 21:54:07</t>
+  </si>
+  <si>
+    <t>2022-07-02 21:55:08</t>
+  </si>
+  <si>
+    <t>2022-07-02 21:56:08</t>
+  </si>
+  <si>
+    <t>2022-07-03 08:51:43</t>
+  </si>
+  <si>
+    <t>2022-07-03 08:51:44</t>
+  </si>
 </sst>
 </file>
 
@@ -145,7 +166,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -291,6 +312,166 @@
         <v>1.0</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.656762383E9</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.656762444E9</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.656762504E9</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.656762926E9</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.656762987E9</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.656817285E9</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.656817285E9</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.656817285E9</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -298,7 +479,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1254,6 +1435,1206 @@
         <v>458758.0</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2441.0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5000.0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3586.0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>232.0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>147.0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>998.0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>581.0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>62654.0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5.2495133E7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2426.0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5000.0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3498.0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>229.0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>998.0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>539.0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>19144.0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5.2495127E7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2426.0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5000.0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3512.0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>232.0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>145.0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>998.0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>536.0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>31828.0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5.2364045E7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2440.0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5002.0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3675.0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>235.0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>998.0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>574.0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>36495.0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>720905.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2423.0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5001.0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>229.0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>148.0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>998.0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>531.0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>57804.0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>655369.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2427.0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5001.0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3614.0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>229.0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>149.0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>998.0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>528.0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>61448.0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>655369.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2440.0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>5002.0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3724.0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>234.0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>153.0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>998.0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>567.0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>12010.0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5636180.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2429.0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>5003.0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3627.0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>230.0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>149.0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>998.0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>528.0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>29834.0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1966109.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2426.0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>5003.0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3639.0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>232.0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>998.0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>524.0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>62804.0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1966109.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2505.0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>5001.0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>14936.0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>597.0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>549.0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>23049.0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>393221.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2476.0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>5001.0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>14835.0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>251.0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>599.0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>506.0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>42418.0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>393221.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2481.0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>5001.0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>14867.0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>599.0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>505.0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4576.0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>393221.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2494.0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>5002.0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>14857.0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>243.0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>596.0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>553.0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>34647.0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3014702.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2478.0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>5002.0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>14765.0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>251.0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>595.0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>512.0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>60471.0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3145773.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2476.0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>5002.0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>14805.0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>239.0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>599.0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>511.0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5163.0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3014701.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2383.0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>4998.0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>169.0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>221.0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>608.0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>17567.0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1245198.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2399.0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>4998.0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>224.0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>571.0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>63273.0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1048590.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2391.0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>4998.0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>159.0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>580.0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>15250.0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>917517.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2383.0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>4998.0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>169.0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>221.0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>608.0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>17567.0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1245198.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2399.0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>4998.0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>224.0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>571.0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>63273.0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1048590.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2391.0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>4998.0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>159.0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>580.0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>15250.0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>917517.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2383.0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>4998.0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>169.0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>221.0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>608.0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>17567.0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1245198.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2399.0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>4998.0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>224.0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>571.0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>63273.0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1048590.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2391.0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>4998.0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>159.0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>580.0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>15250.0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>917517.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1261,7 +2642,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:J169"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3603,6 +4984,3078 @@
         <v>5.0331648E7</v>
       </c>
     </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>29</v>
+      </c>
+      <c r="B74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>322.0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>299.0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>962.0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>265022.0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1301.0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>29</v>
+      </c>
+      <c r="B75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="D75" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>322.0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>293.0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>944.0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>259957.0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>1274.0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>29</v>
+      </c>
+      <c r="B76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="D76" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>322.0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>285.0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>918.0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>245929.0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1254.0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>29</v>
+      </c>
+      <c r="B77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="D77" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>322.0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>296.0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>951.0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>261265.0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>1284.0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>29</v>
+      </c>
+      <c r="B78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>323.0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>286.0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>923.0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>250574.0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1267.0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>29</v>
+      </c>
+      <c r="B79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="D79" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>323.0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>289.0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>931.0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>253312.0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>1273.0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>29</v>
+      </c>
+      <c r="B80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="D80" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>322.0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>282.0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>909.0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>244871.0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1252.0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>29</v>
+      </c>
+      <c r="B81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="D81" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>322.0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>285.0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>918.0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>247140.0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1258.0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>29</v>
+      </c>
+      <c r="B82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>323.0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>283.0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>914.0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>248900.0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1265.0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>29</v>
+      </c>
+      <c r="B83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="D83" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>323.0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>287.0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>926.0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>252070.0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1273.0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="D84" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>323.0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>287.0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>927.0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>252562.0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1260.0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>29</v>
+      </c>
+      <c r="B85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="D85" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>323.0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>288.0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>929.0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>250831.0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1274.0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>30</v>
+      </c>
+      <c r="B86" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>324.0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>305.0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>985.0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>265023.0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1302.0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>30</v>
+      </c>
+      <c r="B87" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="D87" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>324.0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>299.0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>968.0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>259959.0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1276.0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>30</v>
+      </c>
+      <c r="B88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="D88" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>323.0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>291.0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>941.0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>245930.0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1255.0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>30</v>
+      </c>
+      <c r="B89" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="D89" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>323.0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>302.0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>975.0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>261266.0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1285.0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>30</v>
+      </c>
+      <c r="B90" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>324.0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>293.0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>950.0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>250576.0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1269.0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>30</v>
+      </c>
+      <c r="B91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="D91" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>324.0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>296.0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>958.0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>253314.0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1275.0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>30</v>
+      </c>
+      <c r="B92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="D92" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>324.0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>289.0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>936.0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>244873.0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1254.0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>30</v>
+      </c>
+      <c r="B93" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="D93" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>324.0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>292.0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>946.0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>247142.0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1260.0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>30</v>
+      </c>
+      <c r="B94" t="s">
+        <v>0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>324.0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>290.0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>941.0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>248902.0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1267.0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>30</v>
+      </c>
+      <c r="B95" t="s">
+        <v>0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="D95" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>324.0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>294.0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>954.0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>252072.0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1275.0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>30</v>
+      </c>
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="D96" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>294.0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>954.0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>252564.0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1262.0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>30</v>
+      </c>
+      <c r="B97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="D97" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>295.0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>956.0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>250832.0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1275.0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>31</v>
+      </c>
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>307.0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>997.0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>265025.0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1304.0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>31</v>
+      </c>
+      <c r="B99" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="D99" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>302.0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>980.0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>259960.0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1277.0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>31</v>
+      </c>
+      <c r="B100" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="D100" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>324.0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>294.0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>954.0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>245932.0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1257.0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>31</v>
+      </c>
+      <c r="B101" t="s">
+        <v>0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="D101" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>324.0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>305.0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>988.0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>261268.0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1287.0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>31</v>
+      </c>
+      <c r="B102" t="s">
+        <v>0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>295.0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>957.0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>250577.0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1270.0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>31</v>
+      </c>
+      <c r="B103" t="s">
+        <v>0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="D103" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>297.0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>965.0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>253314.0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>1275.0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>31</v>
+      </c>
+      <c r="B104" t="s">
+        <v>0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="D104" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>324.0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>291.0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>943.0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>244874.0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>1255.0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>31</v>
+      </c>
+      <c r="B105" t="s">
+        <v>0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="D105" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>324.0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>294.0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>953.0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>247142.0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>1260.0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>31</v>
+      </c>
+      <c r="B106" t="s">
+        <v>0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>292.0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>947.0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>248902.0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>1267.0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>31</v>
+      </c>
+      <c r="B107" t="s">
+        <v>0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="D107" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>296.0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>961.0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>252073.0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1276.0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>31</v>
+      </c>
+      <c r="B108" t="s">
+        <v>0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="D108" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>296.0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>960.0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>252564.0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1262.0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>31</v>
+      </c>
+      <c r="B109" t="s">
+        <v>0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="D109" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>296.0</v>
+      </c>
+      <c r="G109" t="n">
+        <v>963.0</v>
+      </c>
+      <c r="H109" t="n">
+        <v>250833.0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1276.0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>32</v>
+      </c>
+      <c r="B110" t="s">
+        <v>0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>345.0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1162.0</v>
+      </c>
+      <c r="G110" t="n">
+        <v>3992.0</v>
+      </c>
+      <c r="H110" t="n">
+        <v>265048.0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1327.0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>32</v>
+      </c>
+      <c r="B111" t="s">
+        <v>0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="D111" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>345.0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1138.0</v>
+      </c>
+      <c r="G111" t="n">
+        <v>3909.0</v>
+      </c>
+      <c r="H111" t="n">
+        <v>259983.0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1300.0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>32</v>
+      </c>
+      <c r="B112" t="s">
+        <v>0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="D112" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>342.0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1138.0</v>
+      </c>
+      <c r="G112" t="n">
+        <v>3869.0</v>
+      </c>
+      <c r="H112" t="n">
+        <v>245955.0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1280.0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>32</v>
+      </c>
+      <c r="B113" t="s">
+        <v>0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="D113" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>342.0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1162.0</v>
+      </c>
+      <c r="G113" t="n">
+        <v>3952.0</v>
+      </c>
+      <c r="H113" t="n">
+        <v>261291.0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1310.0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>32</v>
+      </c>
+      <c r="B114" t="s">
+        <v>0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>343.0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1146.0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>3915.0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>250600.0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>1293.0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>32</v>
+      </c>
+      <c r="B115" t="s">
+        <v>0</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="D115" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>343.0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1152.0</v>
+      </c>
+      <c r="G115" t="n">
+        <v>3934.0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>253338.0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>1299.0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>32</v>
+      </c>
+      <c r="B116" t="s">
+        <v>0</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="D116" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>340.0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1147.0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>3875.0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>244897.0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1278.0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>32</v>
+      </c>
+      <c r="B117" t="s">
+        <v>0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="D117" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>340.0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1152.0</v>
+      </c>
+      <c r="G117" t="n">
+        <v>3891.0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>247166.0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1284.0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>32</v>
+      </c>
+      <c r="B118" t="s">
+        <v>0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>343.0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1146.0</v>
+      </c>
+      <c r="G118" t="n">
+        <v>3913.0</v>
+      </c>
+      <c r="H118" t="n">
+        <v>248926.0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1291.0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>32</v>
+      </c>
+      <c r="B119" t="s">
+        <v>0</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="D119" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>343.0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1152.0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>3932.0</v>
+      </c>
+      <c r="H119" t="n">
+        <v>252097.0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1300.0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>32</v>
+      </c>
+      <c r="B120" t="s">
+        <v>0</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="D120" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>341.0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1138.0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>3863.0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>252588.0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1286.0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>32</v>
+      </c>
+      <c r="B121" t="s">
+        <v>0</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="D121" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>341.0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1160.0</v>
+      </c>
+      <c r="G121" t="n">
+        <v>3942.0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>250857.0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1300.0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>33</v>
+      </c>
+      <c r="B122" t="s">
+        <v>0</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>344.0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1161.0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>3973.0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>265055.0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1334.0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>33</v>
+      </c>
+      <c r="B123" t="s">
+        <v>0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="D123" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E123" t="n">
+        <v>344.0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1136.0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>3886.0</v>
+      </c>
+      <c r="H123" t="n">
+        <v>259990.0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1307.0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>33</v>
+      </c>
+      <c r="B124" t="s">
+        <v>0</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="D124" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E124" t="n">
+        <v>340.0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1137.0</v>
+      </c>
+      <c r="G124" t="n">
+        <v>3850.0</v>
+      </c>
+      <c r="H124" t="n">
+        <v>245961.0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1286.0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>33</v>
+      </c>
+      <c r="B125" t="s">
+        <v>0</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="D125" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>340.0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1160.0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>3930.0</v>
+      </c>
+      <c r="H125" t="n">
+        <v>261298.0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1317.0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>33</v>
+      </c>
+      <c r="B126" t="s">
+        <v>0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>342.0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1145.0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>3897.0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>250607.0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1300.0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>33</v>
+      </c>
+      <c r="B127" t="s">
+        <v>0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="D127" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>342.0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1150.0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>3917.0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>253345.0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1306.0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>33</v>
+      </c>
+      <c r="B128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="D128" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>338.0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1146.0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>3859.0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>244904.0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1285.0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>33</v>
+      </c>
+      <c r="B129" t="s">
+        <v>0</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="D129" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>338.0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1149.0</v>
+      </c>
+      <c r="G129" t="n">
+        <v>3870.0</v>
+      </c>
+      <c r="H129" t="n">
+        <v>247172.0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1290.0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>33</v>
+      </c>
+      <c r="B130" t="s">
+        <v>0</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E130" t="n">
+        <v>342.0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1146.0</v>
+      </c>
+      <c r="G130" t="n">
+        <v>3898.0</v>
+      </c>
+      <c r="H130" t="n">
+        <v>248933.0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1298.0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>33</v>
+      </c>
+      <c r="B131" t="s">
+        <v>0</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="D131" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E131" t="n">
+        <v>342.0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1151.0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>3914.0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>252103.0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1306.0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>33</v>
+      </c>
+      <c r="B132" t="s">
+        <v>0</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="D132" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E132" t="n">
+        <v>340.0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1135.0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>3839.0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>252594.0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1292.0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>33</v>
+      </c>
+      <c r="B133" t="s">
+        <v>0</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="D133" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E133" t="n">
+        <v>340.0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1161.0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>3932.0</v>
+      </c>
+      <c r="H133" t="n">
+        <v>250864.0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1307.0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>34</v>
+      </c>
+      <c r="B134" t="s">
+        <v>0</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>316.0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="G134" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="H134" t="n">
+        <v>265827.0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>34</v>
+      </c>
+      <c r="B135" t="s">
+        <v>0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="D135" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>316.0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="G135" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="H135" t="n">
+        <v>260749.0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>34</v>
+      </c>
+      <c r="B136" t="s">
+        <v>0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="D136" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>316.0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="H136" t="n">
+        <v>246708.0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>34</v>
+      </c>
+      <c r="B137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="D137" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>316.0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="H137" t="n">
+        <v>262062.0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>34</v>
+      </c>
+      <c r="B138" t="s">
+        <v>0</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>319.0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="G138" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="H138" t="n">
+        <v>251361.0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>34</v>
+      </c>
+      <c r="B139" t="s">
+        <v>0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="D139" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>319.0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="H139" t="n">
+        <v>254102.0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B140" t="s">
+        <v>0</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="D140" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E140" t="n">
+        <v>316.0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>245646.0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>34</v>
+      </c>
+      <c r="B141" t="s">
+        <v>0</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="D141" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E141" t="n">
+        <v>316.0</v>
+      </c>
+      <c r="F141" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G141" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="H141" t="n">
+        <v>247918.0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>34</v>
+      </c>
+      <c r="B142" t="s">
+        <v>0</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E142" t="n">
+        <v>316.0</v>
+      </c>
+      <c r="F142" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="G142" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="H142" t="n">
+        <v>249680.0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>34</v>
+      </c>
+      <c r="B143" t="s">
+        <v>0</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="D143" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E143" t="n">
+        <v>316.0</v>
+      </c>
+      <c r="F143" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="G143" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="H143" t="n">
+        <v>252859.0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>34</v>
+      </c>
+      <c r="B144" t="s">
+        <v>0</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="D144" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E144" t="n">
+        <v>318.0</v>
+      </c>
+      <c r="F144" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="G144" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="H144" t="n">
+        <v>253350.0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>34</v>
+      </c>
+      <c r="B145" t="s">
+        <v>0</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="D145" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E145" t="n">
+        <v>318.0</v>
+      </c>
+      <c r="F145" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="G145" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="H145" t="n">
+        <v>251614.0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>34</v>
+      </c>
+      <c r="B146" t="s">
+        <v>0</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E146" t="n">
+        <v>316.0</v>
+      </c>
+      <c r="F146" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="G146" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="H146" t="n">
+        <v>265827.0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>34</v>
+      </c>
+      <c r="B147" t="s">
+        <v>0</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="D147" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E147" t="n">
+        <v>316.0</v>
+      </c>
+      <c r="F147" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="G147" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="H147" t="n">
+        <v>260749.0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>34</v>
+      </c>
+      <c r="B148" t="s">
+        <v>0</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="D148" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E148" t="n">
+        <v>316.0</v>
+      </c>
+      <c r="F148" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="G148" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="H148" t="n">
+        <v>246708.0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>34</v>
+      </c>
+      <c r="B149" t="s">
+        <v>0</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="D149" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E149" t="n">
+        <v>316.0</v>
+      </c>
+      <c r="F149" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="G149" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>262062.0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>34</v>
+      </c>
+      <c r="B150" t="s">
+        <v>0</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E150" t="n">
+        <v>319.0</v>
+      </c>
+      <c r="F150" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="G150" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="H150" t="n">
+        <v>251361.0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>34</v>
+      </c>
+      <c r="B151" t="s">
+        <v>0</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="D151" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E151" t="n">
+        <v>319.0</v>
+      </c>
+      <c r="F151" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="G151" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="H151" t="n">
+        <v>254102.0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>34</v>
+      </c>
+      <c r="B152" t="s">
+        <v>0</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="D152" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E152" t="n">
+        <v>316.0</v>
+      </c>
+      <c r="F152" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="G152" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>245646.0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>34</v>
+      </c>
+      <c r="B153" t="s">
+        <v>0</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="D153" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E153" t="n">
+        <v>316.0</v>
+      </c>
+      <c r="F153" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G153" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="H153" t="n">
+        <v>247918.0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>34</v>
+      </c>
+      <c r="B154" t="s">
+        <v>0</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E154" t="n">
+        <v>316.0</v>
+      </c>
+      <c r="F154" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="G154" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="H154" t="n">
+        <v>249680.0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>34</v>
+      </c>
+      <c r="B155" t="s">
+        <v>0</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="D155" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E155" t="n">
+        <v>316.0</v>
+      </c>
+      <c r="F155" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="G155" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="H155" t="n">
+        <v>252859.0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>34</v>
+      </c>
+      <c r="B156" t="s">
+        <v>0</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="D156" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E156" t="n">
+        <v>318.0</v>
+      </c>
+      <c r="F156" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="G156" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="H156" t="n">
+        <v>253350.0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>34</v>
+      </c>
+      <c r="B157" t="s">
+        <v>0</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="D157" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E157" t="n">
+        <v>318.0</v>
+      </c>
+      <c r="F157" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="G157" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="H157" t="n">
+        <v>251614.0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>35</v>
+      </c>
+      <c r="B158" t="s">
+        <v>0</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E158" t="n">
+        <v>316.0</v>
+      </c>
+      <c r="F158" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="G158" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="H158" t="n">
+        <v>265827.0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>35</v>
+      </c>
+      <c r="B159" t="s">
+        <v>0</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="D159" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E159" t="n">
+        <v>316.0</v>
+      </c>
+      <c r="F159" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="G159" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="H159" t="n">
+        <v>260749.0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>35</v>
+      </c>
+      <c r="B160" t="s">
+        <v>0</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="D160" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E160" t="n">
+        <v>316.0</v>
+      </c>
+      <c r="F160" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="G160" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="H160" t="n">
+        <v>246708.0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>35</v>
+      </c>
+      <c r="B161" t="s">
+        <v>0</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1.9110224228993E13</v>
+      </c>
+      <c r="D161" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E161" t="n">
+        <v>316.0</v>
+      </c>
+      <c r="F161" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="G161" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="H161" t="n">
+        <v>262062.0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>35</v>
+      </c>
+      <c r="B162" t="s">
+        <v>0</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E162" t="n">
+        <v>319.0</v>
+      </c>
+      <c r="F162" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="G162" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="H162" t="n">
+        <v>251361.0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>35</v>
+      </c>
+      <c r="B163" t="s">
+        <v>0</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="D163" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E163" t="n">
+        <v>319.0</v>
+      </c>
+      <c r="F163" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="G163" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="H163" t="n">
+        <v>254102.0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>35</v>
+      </c>
+      <c r="B164" t="s">
+        <v>0</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="D164" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E164" t="n">
+        <v>316.0</v>
+      </c>
+      <c r="F164" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="G164" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="H164" t="n">
+        <v>245646.0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>35</v>
+      </c>
+      <c r="B165" t="s">
+        <v>0</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1.9110224226576E13</v>
+      </c>
+      <c r="D165" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E165" t="n">
+        <v>316.0</v>
+      </c>
+      <c r="F165" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G165" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="H165" t="n">
+        <v>247918.0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>35</v>
+      </c>
+      <c r="B166" t="s">
+        <v>0</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E166" t="n">
+        <v>316.0</v>
+      </c>
+      <c r="F166" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="G166" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="H166" t="n">
+        <v>249680.0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>35</v>
+      </c>
+      <c r="B167" t="s">
+        <v>0</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="D167" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E167" t="n">
+        <v>316.0</v>
+      </c>
+      <c r="F167" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="G167" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="H167" t="n">
+        <v>252859.0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>35</v>
+      </c>
+      <c r="B168" t="s">
+        <v>0</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="D168" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E168" t="n">
+        <v>318.0</v>
+      </c>
+      <c r="F168" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="G168" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="H168" t="n">
+        <v>253350.0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>35</v>
+      </c>
+      <c r="B169" t="s">
+        <v>0</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1.9110224228646E13</v>
+      </c>
+      <c r="D169" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E169" t="n">
+        <v>318.0</v>
+      </c>
+      <c r="F169" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="G169" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="H169" t="n">
+        <v>251614.0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>5.0331648E7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
